--- a/ESP32_S3_MINI_1/BOM.xlsx
+++ b/ESP32_S3_MINI_1/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="250">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -49,10 +49,10 @@
     <t xml:space="preserve">Part # LCSC</t>
   </si>
   <si>
-    <t xml:space="preserve">Supplier and ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSCS $</t>
+    <t xml:space="preserve">LCSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost LCSC</t>
   </si>
   <si>
     <t xml:space="preserve">Part # Mouser</t>
@@ -61,13 +61,7 @@
     <t xml:space="preserve">Mouser website</t>
   </si>
   <si>
-    <t xml:space="preserve">Mouser $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost LCSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Mouser &amp; LCSC</t>
+    <t xml:space="preserve">Cost Mouser</t>
   </si>
   <si>
     <t xml:space="preserve">C11,C12,C10,C15,C4</t>
@@ -91,7 +85,7 @@
     <t xml:space="preserve">C71687</t>
   </si>
   <si>
-    <t xml:space="preserve">LCSC</t>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C71687.html?s_z=n_C71687</t>
   </si>
   <si>
     <t xml:space="preserve">C14</t>
@@ -109,6 +103,9 @@
     <t xml:space="preserve">C541371</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C541371.html?s_z=n_C541371</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
     <t xml:space="preserve">C3845593</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C3845593.html?s_z=n_C3845593</t>
+  </si>
+  <si>
     <t xml:space="preserve">C5,C1,C2,C6</t>
   </si>
   <si>
@@ -133,6 +133,9 @@
     <t xml:space="preserve">C77000</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C77000.html?s_z=n_C77000</t>
+  </si>
+  <si>
     <t xml:space="preserve">C7,C8</t>
   </si>
   <si>
@@ -145,7 +148,10 @@
     <t xml:space="preserve">C126521</t>
   </si>
   <si>
-    <t xml:space="preserve">C9,C13</t>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C126521.html?s_z=n_C126521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
   </si>
   <si>
     <t xml:space="preserve">GRM155R61A475KEAAD</t>
@@ -157,6 +163,9 @@
     <t xml:space="preserve">C77004</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C77004.html?s_z=n_C77004</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t xml:space="preserve">C111566</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C111566.html?s_z=n_C111566</t>
+  </si>
+  <si>
     <t xml:space="preserve">863-ESD9B5.0ST5G</t>
   </si>
   <si>
@@ -202,6 +214,9 @@
     <t xml:space="preserve">C511404</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C511404.html?s_z=n_C511404</t>
+  </si>
+  <si>
     <t xml:space="preserve">78-VLMG1500-GS08</t>
   </si>
   <si>
@@ -220,6 +235,9 @@
     <t xml:space="preserve">C511370</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C511370.html?s_z=n_C511370</t>
+  </si>
+  <si>
     <t xml:space="preserve">78-VLMS1500-GS08</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t xml:space="preserve">C511042</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C511042.html?s_z=n_C511042</t>
+  </si>
+  <si>
     <t xml:space="preserve">78-VLMB1500-GS08</t>
   </si>
   <si>
@@ -265,6 +286,9 @@
     <t xml:space="preserve">C965555</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C965555.html?s_z=n_C965555</t>
+  </si>
+  <si>
     <t xml:space="preserve">D7,D8</t>
   </si>
   <si>
@@ -280,6 +304,9 @@
     <t xml:space="preserve">C41348159</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C41348159.html?s_z=n_ESD9101P2T5G</t>
+  </si>
+  <si>
     <t xml:space="preserve">863-ESD9101P2T5G</t>
   </si>
   <si>
@@ -301,6 +328,9 @@
     <t xml:space="preserve">C3189971</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C3189971.html?s_z=n_C3189971</t>
+  </si>
+  <si>
     <t xml:space="preserve">595-TPS6282533DMQR</t>
   </si>
   <si>
@@ -322,6 +352,9 @@
     <t xml:space="preserve">C19725033</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C19725033.html?s_z=n_C19725033</t>
+  </si>
+  <si>
     <t xml:space="preserve">595-BQ25185DLHR</t>
   </si>
   <si>
@@ -349,6 +382,9 @@
     <t xml:space="preserve">C295747</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C295747.html?s_z=n_C295747</t>
+  </si>
+  <si>
     <t xml:space="preserve">306-S2BPHSM4TBLFSN</t>
   </si>
   <si>
@@ -370,6 +406,9 @@
     <t xml:space="preserve">C3445864</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C3445864.html?s_z=n_C3445864</t>
+  </si>
+  <si>
     <t xml:space="preserve">640-USB4120-03-C</t>
   </si>
   <si>
@@ -394,7 +433,10 @@
     <t xml:space="preserve">C970137</t>
   </si>
   <si>
-    <t xml:space="preserve">J4</t>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C970137.html?s_z=n_C970137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7,J4</t>
   </si>
   <si>
     <t xml:space="preserve">Castellated_1x01_P2.54mm_D0.80mm</t>
@@ -409,22 +451,22 @@
     <t xml:space="preserve">Do No Populate</t>
   </si>
   <si>
-    <t xml:space="preserve">J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castellated_1x017_P2.54mm_D0.80mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castellated_1x17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castellated_1x019_P2.54mm_D0.80mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castellated_1x19</t>
+    <t xml:space="preserve">J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castellated_1x16_P2.54mm_D0.80mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castellated_1x16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castellated_1x18_P2.54mm_D0.80mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castellated_1x18</t>
   </si>
   <si>
     <t xml:space="preserve">L1</t>
@@ -445,6 +487,9 @@
     <t xml:space="preserve">C695609</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C695609.html?s_z=n_C695609</t>
+  </si>
+  <si>
     <t xml:space="preserve">810-TFM160808ALCR47A</t>
   </si>
   <si>
@@ -469,6 +514,9 @@
     <t xml:space="preserve">C60491</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C60491.html?s_z=n_C60491</t>
+  </si>
+  <si>
     <t xml:space="preserve">R14,R16</t>
   </si>
   <si>
@@ -481,6 +529,9 @@
     <t xml:space="preserve">C105871</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C105871.html?s_z=n_C105871</t>
+  </si>
+  <si>
     <t xml:space="preserve">R15</t>
   </si>
   <si>
@@ -490,6 +541,9 @@
     <t xml:space="preserve">C105875</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C105875.html?s_z=n_C105875</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
@@ -502,6 +556,9 @@
     <t xml:space="preserve">C138044</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C138044.html?s_z=n_C138044</t>
+  </si>
+  <si>
     <t xml:space="preserve">R3</t>
   </si>
   <si>
@@ -511,6 +568,9 @@
     <t xml:space="preserve">C138010</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C138010.html?s_z=n_C138010</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4,R5</t>
   </si>
   <si>
@@ -523,6 +583,9 @@
     <t xml:space="preserve">C105872</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C105872.html?s_z=n_C105872</t>
+  </si>
+  <si>
     <t xml:space="preserve">R9,R12,R10,R11</t>
   </si>
   <si>
@@ -535,6 +598,9 @@
     <t xml:space="preserve">C114762</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C114762.html?s_z=n_C114762</t>
+  </si>
+  <si>
     <t xml:space="preserve">S1,S2</t>
   </si>
   <si>
@@ -550,6 +616,9 @@
     <t xml:space="preserve">C2760981</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C2760981.html?s_z=n_C2760981</t>
+  </si>
+  <si>
     <t xml:space="preserve">611-NANOT160AS</t>
   </si>
   <si>
@@ -568,6 +637,9 @@
     <t xml:space="preserve">C60490</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C60490.html?s_z=n_C60490</t>
+  </si>
+  <si>
     <t xml:space="preserve">TH1</t>
   </si>
   <si>
@@ -586,6 +658,9 @@
     <t xml:space="preserve">C77131</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C77131.html?s_z=n_C77131</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -607,6 +682,9 @@
     <t xml:space="preserve">C2913206</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C2913206.html?s_z=n_C2913206</t>
+  </si>
+  <si>
     <t xml:space="preserve">U3</t>
   </si>
   <si>
@@ -628,6 +706,9 @@
     <t xml:space="preserve">C2682616</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C2682616.html?s_z=n_C2682616</t>
+  </si>
+  <si>
     <t xml:space="preserve">700-MAX17048G+T10</t>
   </si>
   <si>
@@ -655,10 +736,40 @@
     <t xml:space="preserve">C99269</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C99269.html?s_z=n_C99269</t>
+  </si>
+  <si>
     <t xml:space="preserve">595-TMP102AQDRLRQ1</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mouser.com/ProductDetail/Texas-Instruments/TMP102AQDRLRQ1?qs=asCBFxFfL1SM%2FKfsYcTt1w%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5,U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-363_SC-70-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM66100DCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal Diode, Input Polarity Prot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2869734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/C2869734.html?s_z=n_C2869734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-LM66100DCKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Texas-Instruments/LM66100DCKT?qs=vLWxofP3U2zoiBCtDTudjw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -668,11 +779,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -698,6 +810,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -722,6 +835,13 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -777,7 +897,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -818,6 +938,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,44 +952,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -934,16 +1020,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.21"/>
@@ -986,20 +1072,14 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,43 +1087,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <f aca="false">D2*K2</f>
-        <v>1.6</v>
-      </c>
-      <c r="P2" s="4" t="n">
+      <c r="L2" s="4" t="n">
         <f aca="false">K2*D2</f>
         <v>1.6</v>
       </c>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -1051,43 +1128,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <f aca="false">D3*K3</f>
-        <v>0.13</v>
-      </c>
-      <c r="P3" s="4" t="n">
+      <c r="L3" s="4" t="n">
         <f aca="false">K3*D3</f>
         <v>0.13</v>
       </c>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -1095,43 +1169,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <f aca="false">D4*K4</f>
-        <v>0.57</v>
-      </c>
-      <c r="P4" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <f aca="false">K4*D4</f>
         <v>0.57</v>
       </c>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -1142,16 +1213,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>34</v>
@@ -1159,23 +1230,20 @@
       <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <f aca="false">D5*K5</f>
-        <v>2.32</v>
-      </c>
-      <c r="P5" s="4" t="n">
+      <c r="L5" s="4" t="n">
         <f aca="false">K5*D5</f>
         <v>2.32</v>
       </c>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -1183,43 +1251,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <f aca="false">D6*K6</f>
-        <v>1.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <f aca="false">K6*D6</f>
         <v>1.92</v>
       </c>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -1227,43 +1292,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>0.81</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <f aca="false">D7*K7</f>
-        <v>1.62</v>
-      </c>
-      <c r="P7" s="4" t="n">
+      <c r="L7" s="4" t="n">
         <f aca="false">K7*D7</f>
-        <v>1.62</v>
-      </c>
+        <v>0.81</v>
+      </c>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -1271,52 +1333,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>51</v>
+      <c r="L8" s="4" t="n">
+        <f aca="false">K8*D8</f>
+        <v>0.04</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="O8" s="4" t="n">
-        <f aca="false">D8*K8</f>
-        <v>0.04</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <f aca="false">D8*N8</f>
-        <v>0.1</v>
-      </c>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -1324,52 +1383,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>60</v>
+      <c r="L9" s="4" t="n">
+        <f aca="false">K9*D9</f>
+        <v>0.19</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>0.34</v>
       </c>
-      <c r="O9" s="4" t="n">
-        <f aca="false">D9*K9</f>
-        <v>0.19</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <f aca="false">D9*N9</f>
-        <v>0.34</v>
-      </c>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -1377,52 +1433,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>66</v>
+      <c r="L10" s="4" t="n">
+        <f aca="false">K10*D10</f>
+        <v>0.17</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="O10" s="4" t="n">
-        <f aca="false">D10*K10</f>
-        <v>0.17</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <f aca="false">D10*N10</f>
-        <v>0.24</v>
-      </c>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -1430,52 +1483,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>72</v>
+      <c r="L11" s="4" t="n">
+        <f aca="false">K11*D11</f>
+        <v>0.4</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>0.27</v>
       </c>
-      <c r="O11" s="4" t="n">
-        <f aca="false">D11*K11</f>
-        <v>0.4</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <f aca="false">D11*N11</f>
-        <v>0.54</v>
-      </c>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
@@ -1483,43 +1533,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="O12" s="4" t="n">
-        <f aca="false">D12*K12</f>
-        <v>0.45</v>
-      </c>
-      <c r="P12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <f aca="false">K12*D12</f>
         <v>0.45</v>
       </c>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
@@ -1527,52 +1574,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>0.56</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>86</v>
+      <c r="L13" s="4" t="n">
+        <f aca="false">K13*D13</f>
+        <v>1.12</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>0.26</v>
       </c>
-      <c r="O13" s="4" t="n">
-        <f aca="false">D13*K13</f>
-        <v>1.12</v>
-      </c>
-      <c r="P13" s="4" t="n">
-        <f aca="false">D13*N13</f>
-        <v>0.52</v>
-      </c>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
@@ -1580,52 +1624,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="K14" s="4" t="n">
         <v>1.17</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>93</v>
+      <c r="L14" s="4" t="n">
+        <f aca="false">K14*D14</f>
+        <v>1.17</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>1.25</v>
       </c>
-      <c r="O14" s="4" t="n">
-        <f aca="false">D14*K14</f>
-        <v>1.17</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <f aca="false">D14*N14</f>
-        <v>1.25</v>
-      </c>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
@@ -1633,52 +1674,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="K15" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>100</v>
+      <c r="L15" s="4" t="n">
+        <f aca="false">K15*D15</f>
+        <v>1.9</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>2.03</v>
       </c>
-      <c r="O15" s="4" t="n">
-        <f aca="false">D15*K15</f>
-        <v>1.9</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <f aca="false">D15*N15</f>
-        <v>2.03</v>
-      </c>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
@@ -1686,52 +1724,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>109</v>
+      <c r="L16" s="4" t="n">
+        <f aca="false">K16*D16</f>
+        <v>0.2</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>0.49</v>
       </c>
-      <c r="O16" s="4" t="n">
-        <f aca="false">D16*K16</f>
-        <v>0.2</v>
-      </c>
-      <c r="P16" s="4" t="n">
-        <f aca="false">D16*N16</f>
-        <v>0.49</v>
-      </c>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
@@ -1739,52 +1774,49 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="K17" s="6" t="n">
         <v>1.31</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>116</v>
+      <c r="L17" s="4" t="n">
+        <f aca="false">K17*D17</f>
+        <v>1.31</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>0.86</v>
       </c>
-      <c r="O17" s="4" t="n">
-        <f aca="false">D17*K17</f>
-        <v>1.31</v>
-      </c>
-      <c r="P17" s="4" t="n">
-        <f aca="false">D17*N17</f>
-        <v>0.86</v>
-      </c>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
@@ -1792,43 +1824,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="O18" s="4" t="n">
-        <f aca="false">D18*K18</f>
-        <v>0.65</v>
-      </c>
-      <c r="P18" s="4" t="n">
+      <c r="L18" s="4" t="n">
         <f aca="false">K18*D18</f>
         <v>0.65</v>
       </c>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
@@ -1836,39 +1865,33 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="O19" s="4" t="n">
-        <f aca="false">D19*K19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="n">
-        <f aca="false">D19*N19</f>
-        <v>0</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
@@ -1876,39 +1899,33 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="O20" s="4" t="n">
-        <f aca="false">D20*K20</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="4" t="n">
-        <f aca="false">D20*N20</f>
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
@@ -1916,39 +1933,33 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="O21" s="4" t="n">
-        <f aca="false">D21*K21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="n">
-        <f aca="false">D21*N21</f>
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
@@ -1956,52 +1967,49 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>141</v>
+      <c r="L22" s="4" t="n">
+        <f aca="false">K22*D22</f>
+        <v>0.13</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="N22" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="O22" s="4" t="n">
-        <f aca="false">D22*K22</f>
-        <v>0.13</v>
-      </c>
-      <c r="P22" s="4" t="n">
-        <f aca="false">D22*N22</f>
-        <v>0.25</v>
-      </c>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
@@ -2009,43 +2017,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="K23" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O23" s="4" t="n">
-        <f aca="false">D23*K23</f>
-        <v>0.16</v>
-      </c>
-      <c r="P23" s="4" t="n">
+      <c r="L23" s="4" t="n">
         <f aca="false">K23*D23</f>
         <v>0.16</v>
       </c>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
@@ -2053,43 +2058,40 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="5" t="n">
+        <v>169</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O24" s="4" t="n">
-        <f aca="false">D24*K24</f>
-        <v>0.16</v>
-      </c>
-      <c r="P24" s="4" t="n">
+      <c r="L24" s="4" t="n">
         <f aca="false">K24*D24</f>
         <v>0.16</v>
       </c>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
@@ -2097,43 +2099,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>155</v>
+      <c r="I25" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="5" t="n">
+        <v>173</v>
+      </c>
+      <c r="K25" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O25" s="4" t="n">
-        <f aca="false">D25*K25</f>
-        <v>0.08</v>
-      </c>
-      <c r="P25" s="4" t="n">
+      <c r="L25" s="4" t="n">
         <f aca="false">K25*D25</f>
         <v>0.08</v>
       </c>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
@@ -2141,43 +2140,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>159</v>
+        <v>176</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="5" t="n">
+        <v>178</v>
+      </c>
+      <c r="K26" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O26" s="4" t="n">
-        <f aca="false">D26*K26</f>
-        <v>0.08</v>
-      </c>
-      <c r="P26" s="4" t="n">
+      <c r="L26" s="4" t="n">
         <f aca="false">K26*D26</f>
         <v>0.08</v>
       </c>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
@@ -2185,43 +2181,40 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>162</v>
+      <c r="I27" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="5" t="n">
+        <v>182</v>
+      </c>
+      <c r="K27" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O27" s="4" t="n">
-        <f aca="false">D27*K27</f>
-        <v>0.08</v>
-      </c>
-      <c r="P27" s="4" t="n">
+      <c r="L27" s="4" t="n">
         <f aca="false">K27*D27</f>
         <v>0.08</v>
       </c>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -2229,43 +2222,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>166</v>
+        <v>185</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="5" t="n">
+        <v>187</v>
+      </c>
+      <c r="K28" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O28" s="4" t="n">
-        <f aca="false">D28*K28</f>
-        <v>0.16</v>
-      </c>
-      <c r="P28" s="4" t="n">
+      <c r="L28" s="4" t="n">
         <f aca="false">K28*D28</f>
         <v>0.16</v>
       </c>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
@@ -2273,43 +2263,40 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>170</v>
+        <v>190</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="K29" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="O29" s="4" t="n">
-        <f aca="false">D29*K29</f>
-        <v>0.36</v>
-      </c>
-      <c r="P29" s="4" t="n">
+      <c r="L29" s="4" t="n">
         <f aca="false">K29*D29</f>
         <v>0.36</v>
       </c>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
@@ -2317,52 +2304,49 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>175</v>
+        <v>194</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>1.72</v>
       </c>
-      <c r="L30" s="0" t="s">
-        <v>176</v>
+      <c r="L30" s="4" t="n">
+        <f aca="false">K30*D30</f>
+        <v>3.44</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="N30" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="O30" s="4" t="n">
-        <f aca="false">D30*K30</f>
-        <v>3.44</v>
-      </c>
-      <c r="P30" s="4" t="n">
-        <f aca="false">D30*N30</f>
-        <v>0.8</v>
-      </c>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
@@ -2370,43 +2354,40 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>181</v>
+        <v>203</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="5" t="n">
+        <v>205</v>
+      </c>
+      <c r="K31" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="O31" s="4" t="n">
-        <f aca="false">D31*K31</f>
-        <v>0.16</v>
-      </c>
-      <c r="P31" s="4" t="n">
+      <c r="L31" s="4" t="n">
         <f aca="false">K31*D31</f>
         <v>0.16</v>
       </c>
+      <c r="P31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
@@ -2414,43 +2395,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>187</v>
+        <v>210</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="K32" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="O32" s="4" t="n">
-        <f aca="false">D32*K32</f>
-        <v>0.01</v>
-      </c>
-      <c r="P32" s="4" t="n">
+      <c r="L32" s="4" t="n">
         <f aca="false">K32*D32</f>
         <v>0.01</v>
       </c>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
@@ -2458,43 +2436,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="9" t="n">
+        <v>218</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" s="8" t="n">
         <v>4.6185</v>
       </c>
-      <c r="O33" s="4" t="n">
-        <f aca="false">D33*K33</f>
-        <v>4.6185</v>
-      </c>
-      <c r="P33" s="4" t="n">
+      <c r="L33" s="4" t="n">
         <f aca="false">K33*D33</f>
         <v>4.6185</v>
       </c>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
@@ -2502,52 +2477,49 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>201</v>
+        <v>226</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="5" t="n">
+        <v>228</v>
+      </c>
+      <c r="K34" s="4" t="n">
         <v>2.66</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>202</v>
+      <c r="L34" s="4" t="n">
+        <f aca="false">K34*D34</f>
+        <v>2.66</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="N34" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>5.77</v>
       </c>
-      <c r="O34" s="4" t="n">
-        <f aca="false">D34*K34</f>
-        <v>2.66</v>
-      </c>
-      <c r="P34" s="4" t="n">
-        <f aca="false">D34*N34</f>
-        <v>5.77</v>
-      </c>
+      <c r="P34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
@@ -2555,65 +2527,145 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>210</v>
+        <v>236</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="K35" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>211</v>
+      <c r="L35" s="4" t="n">
+        <f aca="false">K35*D35</f>
+        <v>0.22</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="N35" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>1.52</v>
       </c>
-      <c r="O35" s="4" t="n">
-        <f aca="false">D35*K35</f>
-        <v>0.22</v>
-      </c>
-      <c r="P35" s="4" t="n">
-        <f aca="false">D35*N35</f>
-        <v>1.52</v>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <f aca="false">A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <f aca="false">K36*D36</f>
+        <v>1.76</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O37" s="0" t="n">
-        <f aca="false">SUM(O2:O35)</f>
-        <v>28.0785</v>
-      </c>
-      <c r="P37" s="4" t="n">
-        <f aca="false">SUM(P2:P35)</f>
-        <v>29.8385</v>
-      </c>
+      <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="0" t="n">
+        <f aca="false">SUM(L2:L36)</f>
+        <v>29.0285</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="https://www.lcsc.com/product-detail/C71687.html?s_z=n_C71687"/>
+    <hyperlink ref="J3" r:id="rId2" display="https://www.lcsc.com/product-detail/C541371.html?s_z=n_C541371"/>
+    <hyperlink ref="J4" r:id="rId3" display="https://www.lcsc.com/product-detail/C3845593.html?s_z=n_C3845593"/>
+    <hyperlink ref="J5" r:id="rId4" display="https://www.lcsc.com/product-detail/C77000.html?s_z=n_C77000"/>
+    <hyperlink ref="J6" r:id="rId5" display="https://www.lcsc.com/product-detail/C126521.html?s_z=n_C126521"/>
+    <hyperlink ref="J7" r:id="rId6" display="https://www.lcsc.com/product-detail/C77004.html?s_z=n_C77004"/>
+    <hyperlink ref="J8" r:id="rId7" display="https://www.lcsc.com/product-detail/C111566.html?s_z=n_C111566"/>
+    <hyperlink ref="J9" r:id="rId8" display="https://www.lcsc.com/product-detail/C511404.html?s_z=n_C511404"/>
+    <hyperlink ref="J10" r:id="rId9" display="https://www.lcsc.com/product-detail/C511370.html?s_z=n_C511370"/>
+    <hyperlink ref="J11" r:id="rId10" display="https://www.lcsc.com/product-detail/C511042.html?s_z=n_C511042"/>
+    <hyperlink ref="J12" r:id="rId11" display="https://www.lcsc.com/product-detail/C965555.html?s_z=n_C965555"/>
+    <hyperlink ref="J13" r:id="rId12" display="https://www.lcsc.com/product-detail/C41348159.html?s_z=n_ESD9101P2T5G"/>
+    <hyperlink ref="J14" r:id="rId13" display="https://www.lcsc.com/product-detail/C3189971.html?s_z=n_C3189971"/>
+    <hyperlink ref="J15" r:id="rId14" display="https://www.lcsc.com/product-detail/C19725033.html?s_z=n_C19725033"/>
+    <hyperlink ref="J16" r:id="rId15" display="https://www.lcsc.com/product-detail/C295747.html?s_z=n_C295747"/>
+    <hyperlink ref="J17" r:id="rId16" display="https://www.lcsc.com/product-detail/C3445864.html?s_z=n_C3445864"/>
+    <hyperlink ref="J18" r:id="rId17" display="https://www.lcsc.com/product-detail/C970137.html?s_z=n_C970137"/>
+    <hyperlink ref="J22" r:id="rId18" display="https://www.lcsc.com/product-detail/C695609.html?s_z=n_C695609"/>
+    <hyperlink ref="J23" r:id="rId19" display="https://www.lcsc.com/product-detail/C60491.html?s_z=n_C60491"/>
+    <hyperlink ref="J24" r:id="rId20" display="https://www.lcsc.com/product-detail/C105871.html?s_z=n_C105871"/>
+    <hyperlink ref="J25" r:id="rId21" display="https://www.lcsc.com/product-detail/C105875.html?s_z=n_C105875"/>
+    <hyperlink ref="J26" r:id="rId22" display="https://www.lcsc.com/product-detail/C138044.html?s_z=n_C138044"/>
+    <hyperlink ref="J27" r:id="rId23" display="https://www.lcsc.com/product-detail/C138010.html?s_z=n_C138010"/>
+    <hyperlink ref="J28" r:id="rId24" display="https://www.lcsc.com/product-detail/C105872.html?s_z=n_C105872"/>
+    <hyperlink ref="J29" r:id="rId25" display="https://www.lcsc.com/product-detail/C114762.html?s_z=n_C114762"/>
+    <hyperlink ref="J30" r:id="rId26" display="https://www.lcsc.com/product-detail/C2760981.html?s_z=n_C2760981"/>
+    <hyperlink ref="J31" r:id="rId27" display="https://www.lcsc.com/product-detail/C60490.html?s_z=n_C60490"/>
+    <hyperlink ref="J32" r:id="rId28" display="https://www.lcsc.com/product-detail/C77131.html?s_z=n_C77131"/>
+    <hyperlink ref="J33" r:id="rId29" display="https://www.lcsc.com/product-detail/C2913206.html?s_z=n_C2913206"/>
+    <hyperlink ref="J34" r:id="rId30" display="https://www.lcsc.com/product-detail/C2682616.html?s_z=n_C2682616"/>
+    <hyperlink ref="J35" r:id="rId31" display="https://www.lcsc.com/product-detail/C99269.html?s_z=n_C99269"/>
+    <hyperlink ref="J36" r:id="rId32" display="https://www.lcsc.com/product-detail/C2869734.html?s_z=n_C2869734"/>
+    <hyperlink ref="N36" r:id="rId33" display="https://www.mouser.com/ProductDetail/Texas-Instruments/LM66100DCKT?qs=vLWxofP3U2zoiBCtDTudjw%3D%3D"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
